--- a/biology/Zoologie/Endoxocrinus/Endoxocrinus.xlsx
+++ b/biology/Zoologie/Endoxocrinus/Endoxocrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Endoxocrinus est un genre de Crinoïdes (Echinodermes) sessiles de la famille des Isselicrinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crinoïdes « vrais » (sessiles) : ils vivent attachés au fond par une longue tige calcaire articulée, munie à chaque nœud de cinq cirrhes articulés et terminés par une griffe. Ceux-ci permettent à ces espèces de se déplacer quand leur tige n'est plus soudée au substrat. 
 On ne les trouve que dans les abysses.
@@ -543,9 +557,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (17 novembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (17 novembre 2014) :
 sous-genre Endoxocrinus (Diplocrinus) Döderlein, 1912
 Endoxocrinus alternicirrus (Carpenter, 1882) -- Pacifique central et ouest
 sous-espèce Endoxocrinus (Diplocrinus) alternicirrus alternicirrus (Carpenter, 1882) (625–1476 m)
